--- a/biology/Zoologie/Fauvette_à_lunettes/Fauvette_à_lunettes.xlsx
+++ b/biology/Zoologie/Fauvette_à_lunettes/Fauvette_à_lunettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fauvette_%C3%A0_lunettes</t>
+          <t>Fauvette_à_lunettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curruca conspicillata
 La Fauvette à lunettes (Curruca conspicillata) est une espèce de passereaux appartenant à la famille des Sylviidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fauvette_%C3%A0_lunettes</t>
+          <t>Fauvette_à_lunettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fauvette_%C3%A0_lunettes</t>
+          <t>Fauvette_à_lunettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,14 +549,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fauvette_%C3%A0_lunettes</t>
+          <t>Fauvette_à_lunettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,39 +577,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fauvette_%C3%A0_lunettes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fauvette_%C3%A0_lunettes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par l'ornithologue Coenraad Jacob Temminck en 1820[1].
-La fauvette à lunettes faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[2].
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'ornithologue Coenraad Jacob Temminck en 1820.
+La fauvette à lunettes faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
